--- a/Hanoi Itinerary.xlsx
+++ b/Hanoi Itinerary.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r15\Documents\Itinerary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6DAB6-9458-429C-A8E3-406856539F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{A0C7DE13-92C8-4C70-B25B-2B2ABF21E584}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -175,9 +169,6 @@
     <t>Return to Ancient Lane Hotel Hanoi for wash-up</t>
   </si>
   <si>
-    <t>Location: No 2 Tam Thuong Lane, Hang Gai Ward, Hoan Kiem District, Hanoi City, Vietnam, Old Quarter, Hanoi, Vietnam 10000</t>
-  </si>
-  <si>
     <t>Walk (1.5km) or take cab to Ancient Lane Hotel</t>
   </si>
   <si>
@@ -274,18 +265,34 @@
   </si>
   <si>
     <t>60-min Traditional Vietnamese Massage at La Belle Spa Massage (optional)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Location: No 2 Tam Thuong Lane, Hang Gai Ward, Hoan Kiem District, Hanoi City, Vietnam, Old Quarter, Hanoi, Vietnam 10000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paid by credit card: $2,041,064</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +338,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -428,12 +442,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -450,38 +501,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,10 +532,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,18 +547,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -550,7 +641,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{48A55967-6387-441A-9D6B-7D3D07D1DEE1}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -609,7 +700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -661,7 +752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -855,14 +946,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F2A78-481B-465C-A615-433E0410F49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -870,16 +961,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="52.28515625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -887,736 +978,734 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="23">
         <v>43382</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="29">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="29">
         <v>0.5625</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="16">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="29">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="29">
         <v>0.74652777777777779</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="29">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="29">
         <v>0.8125</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="29">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="29">
         <v>0.9375</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="30">
         <v>50000</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>0.9375</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="23">
         <v>43383</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="34">
         <v>0.27083333333333331</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="34">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="29">
         <v>0.32291666666666669</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <v>0.75</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:5" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="29">
         <v>0.75</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="29">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="30">
         <v>55000</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="23">
         <v>43384</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="29">
         <v>0.27083333333333331</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="29">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="29">
         <v>0.32291666666666669</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="12">
         <v>0.75</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="D25" s="13">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0.78125</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D26" s="30">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D24" s="17">
-        <v>2041064</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.78125</v>
-      </c>
-      <c r="D25" s="17">
-        <v>100000</v>
-      </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="16">
-        <v>0.78125</v>
-      </c>
-      <c r="C26" s="16">
+    </row>
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="12">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D26" s="17">
-        <v>30000</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="16">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="C27" s="12">
         <v>0.875</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="29">
         <v>0.875</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="29">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="23">
         <v>43385</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C33" s="16">
+    </row>
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="19" t="s">
+      <c r="C34" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="13">
+        <v>30000</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="29">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="17">
-        <v>30000</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D38" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C39" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D39" s="30">
+        <v>55000</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C36" s="16">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="16">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C37" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C38" s="16">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D38" s="17">
-        <v>10000</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="16">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C39" s="16">
+      <c r="B40" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D39" s="17">
-        <v>55000</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="16">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C40" s="16">
+      <c r="C40" s="12">
         <v>0.85416666666666663</v>
       </c>
       <c r="D40" s="7">
         <v>150000</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="29">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="29">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="23">
         <v>43386</v>
       </c>
-      <c r="C43" s="28"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="12">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="12">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+    </row>
+    <row r="47" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D47" s="13">
+        <v>520000</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="16">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="C46" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C47" s="16">
+    </row>
+    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D47" s="17">
-        <v>520000</v>
-      </c>
-      <c r="E47" s="18" t="s">
+      <c r="C48" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="16">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C48" s="16">
+      <c r="B49" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="16">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C49" s="16">
+      <c r="C49" s="12">
         <v>0.875</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="29">
         <v>0.875</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="29">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="23">
         <v>43387</v>
       </c>
-      <c r="C52" s="28"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="9"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="12">
         <v>0.3125</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="29">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C55" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="16">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C55" s="16">
+    </row>
+    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="12">
         <v>0.375</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="C56" s="16">
+      <c r="C56" s="12">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="13">
         <v>320000</v>
       </c>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="29">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C57" s="29">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="B57" s="21">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="C57" s="21">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1629,234 +1718,18 @@
     <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A127171-F983-4B99-AF9A-CC20752645BB}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>830</v>
-      </c>
-      <c r="B1">
-        <v>1730</v>
-      </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-      <c r="E1">
-        <f>10.5*C1+10.5*1.5*D1</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>830</v>
-      </c>
-      <c r="B2">
-        <v>1900</v>
-      </c>
-      <c r="C2">
-        <v>8.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E15" si="0">10.5*C2+10.5*1.5*D2</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>845</v>
-      </c>
-      <c r="B3">
-        <v>2045</v>
-      </c>
-      <c r="C3">
-        <v>8.25</v>
-      </c>
-      <c r="D3">
-        <v>2.75</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>129.9375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>830</v>
-      </c>
-      <c r="B4">
-        <v>1800</v>
-      </c>
-      <c r="C4">
-        <v>8.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>89.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>830</v>
-      </c>
-      <c r="B5">
-        <v>1515</v>
-      </c>
-      <c r="C5">
-        <v>5.75</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>60.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>830</v>
-      </c>
-      <c r="B7">
-        <v>1800</v>
-      </c>
-      <c r="C7">
-        <v>8.5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>89.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>830</v>
-      </c>
-      <c r="B8">
-        <v>1800</v>
-      </c>
-      <c r="C8">
-        <v>8.5</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>89.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>830</v>
-      </c>
-      <c r="B9">
-        <v>1800</v>
-      </c>
-      <c r="C9">
-        <v>8.5</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>89.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>830</v>
-      </c>
-      <c r="B10">
-        <v>2015</v>
-      </c>
-      <c r="C10">
-        <v>8.5</v>
-      </c>
-      <c r="D10">
-        <v>2.25</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>124.6875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>830</v>
-      </c>
-      <c r="B11">
-        <v>1830</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1130</v>
-      </c>
-      <c r="B13">
-        <v>1800</v>
-      </c>
-      <c r="C13">
-        <v>5.5</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>57.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>830</v>
-      </c>
-      <c r="B14">
-        <v>1800</v>
-      </c>
-      <c r="C14">
-        <v>8.5</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>89.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>845</v>
-      </c>
-      <c r="B15">
-        <v>1800</v>
-      </c>
-      <c r="C15">
-        <v>8.25</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>86.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16">
-        <f>SUM(E1:E15)</f>
-        <v>1194.375</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>